--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +519,557 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>11.4503768643836</v>
+        <v>0.1188046666666667</v>
       </c>
       <c r="H2">
-        <v>11.4503768643836</v>
+        <v>0.356414</v>
       </c>
       <c r="I2">
-        <v>0.9739966282664096</v>
+        <v>0.00979853232878679</v>
       </c>
       <c r="J2">
-        <v>0.9739966282664096</v>
+        <v>0.009798532328786792</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.16563581546026</v>
+        <v>0.114041</v>
       </c>
       <c r="N2">
-        <v>1.16563581546026</v>
+        <v>0.342123</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.07100488927427132</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.07100488927427133</v>
       </c>
       <c r="Q2">
-        <v>13.34696937364307</v>
+        <v>0.01354860299133333</v>
       </c>
       <c r="R2">
-        <v>13.34696937364307</v>
+        <v>0.121937426922</v>
       </c>
       <c r="S2">
-        <v>0.9739966282664096</v>
+        <v>0.0006957437030558739</v>
       </c>
       <c r="T2">
-        <v>0.9739966282664096</v>
+        <v>0.0006957437030558741</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.1188046666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.356414</v>
+      </c>
+      <c r="I3">
+        <v>0.00979853232878679</v>
+      </c>
+      <c r="J3">
+        <v>0.009798532328786792</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.292138</v>
+      </c>
+      <c r="N3">
+        <v>0.876414</v>
+      </c>
+      <c r="O3">
+        <v>0.181892708261126</v>
+      </c>
+      <c r="P3">
+        <v>0.1818927082611261</v>
+      </c>
+      <c r="Q3">
+        <v>0.03470735771066667</v>
+      </c>
+      <c r="R3">
+        <v>0.312366219396</v>
+      </c>
+      <c r="S3">
+        <v>0.001782281582267227</v>
+      </c>
+      <c r="T3">
+        <v>0.001782281582267228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.1188046666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.356414</v>
+      </c>
+      <c r="I4">
+        <v>0.00979853232878679</v>
+      </c>
+      <c r="J4">
+        <v>0.009798532328786792</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="M4">
+        <v>1.199921666666667</v>
+      </c>
+      <c r="N4">
+        <v>3.599765</v>
+      </c>
+      <c r="O4">
+        <v>0.7471024024646026</v>
+      </c>
+      <c r="P4">
+        <v>0.7471024024646027</v>
+      </c>
+      <c r="Q4">
+        <v>0.1425562936344444</v>
+      </c>
+      <c r="R4">
+        <v>1.28300664271</v>
+      </c>
+      <c r="S4">
+        <v>0.007320507043463688</v>
+      </c>
+      <c r="T4">
+        <v>0.007320507043463691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0.305697573742349</v>
-      </c>
-      <c r="H3">
-        <v>0.305697573742349</v>
-      </c>
-      <c r="I3">
-        <v>0.02600337173359041</v>
-      </c>
-      <c r="J3">
-        <v>0.02600337173359041</v>
-      </c>
-      <c r="K3">
+      <c r="G5">
+        <v>11.502271</v>
+      </c>
+      <c r="H5">
+        <v>34.50681299999999</v>
+      </c>
+      <c r="I5">
+        <v>0.9486611714015168</v>
+      </c>
+      <c r="J5">
+        <v>0.948661171401517</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.114041</v>
+      </c>
+      <c r="N5">
+        <v>0.342123</v>
+      </c>
+      <c r="O5">
+        <v>0.07100488927427132</v>
+      </c>
+      <c r="P5">
+        <v>0.07100488927427133</v>
+      </c>
+      <c r="Q5">
+        <v>1.311730487111</v>
+      </c>
+      <c r="R5">
+        <v>11.805574383999</v>
+      </c>
+      <c r="S5">
+        <v>0.06735958143416522</v>
+      </c>
+      <c r="T5">
+        <v>0.06735958143416525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="G6">
+        <v>11.502271</v>
+      </c>
+      <c r="H6">
+        <v>34.50681299999999</v>
+      </c>
+      <c r="I6">
+        <v>0.9486611714015168</v>
+      </c>
+      <c r="J6">
+        <v>0.948661171401517</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.292138</v>
+      </c>
+      <c r="N6">
+        <v>0.876414</v>
+      </c>
+      <c r="O6">
+        <v>0.181892708261126</v>
+      </c>
+      <c r="P6">
+        <v>0.1818927082611261</v>
+      </c>
+      <c r="Q6">
+        <v>3.360250445398</v>
+      </c>
+      <c r="R6">
+        <v>30.24225400858199</v>
+      </c>
+      <c r="S6">
+        <v>0.1725545496883942</v>
+      </c>
+      <c r="T6">
+        <v>0.1725545496883942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>1.16563581546026</v>
-      </c>
-      <c r="N3">
-        <v>1.16563581546026</v>
-      </c>
-      <c r="O3">
+      <c r="G7">
+        <v>11.502271</v>
+      </c>
+      <c r="H7">
+        <v>34.50681299999999</v>
+      </c>
+      <c r="I7">
+        <v>0.9486611714015168</v>
+      </c>
+      <c r="J7">
+        <v>0.948661171401517</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="M7">
+        <v>1.199921666666667</v>
+      </c>
+      <c r="N7">
+        <v>3.599765</v>
+      </c>
+      <c r="O7">
+        <v>0.7471024024646026</v>
+      </c>
+      <c r="P7">
+        <v>0.7471024024646027</v>
+      </c>
+      <c r="Q7">
+        <v>13.80182418877166</v>
+      </c>
+      <c r="R7">
+        <v>124.216417698945</v>
+      </c>
+      <c r="S7">
+        <v>0.7087470402789574</v>
+      </c>
+      <c r="T7">
+        <v>0.7087470402789575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="Q3">
-        <v>0.356332040653386</v>
-      </c>
-      <c r="R3">
-        <v>0.356332040653386</v>
-      </c>
-      <c r="S3">
-        <v>0.02600337173359041</v>
-      </c>
-      <c r="T3">
-        <v>0.02600337173359041</v>
+      <c r="G8">
+        <v>0.5036653333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.510996</v>
+      </c>
+      <c r="I8">
+        <v>0.04154029626969626</v>
+      </c>
+      <c r="J8">
+        <v>0.04154029626969627</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.114041</v>
+      </c>
+      <c r="N8">
+        <v>0.342123</v>
+      </c>
+      <c r="O8">
+        <v>0.07100488927427132</v>
+      </c>
+      <c r="P8">
+        <v>0.07100488927427133</v>
+      </c>
+      <c r="Q8">
+        <v>0.05743849827866666</v>
+      </c>
+      <c r="R8">
+        <v>0.5169464845080001</v>
+      </c>
+      <c r="S8">
+        <v>0.002949564137050208</v>
+      </c>
+      <c r="T8">
+        <v>0.00294956413705021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5036653333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.510996</v>
+      </c>
+      <c r="I9">
+        <v>0.04154029626969626</v>
+      </c>
+      <c r="J9">
+        <v>0.04154029626969627</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.292138</v>
+      </c>
+      <c r="N9">
+        <v>0.876414</v>
+      </c>
+      <c r="O9">
+        <v>0.181892708261126</v>
+      </c>
+      <c r="P9">
+        <v>0.1818927082611261</v>
+      </c>
+      <c r="Q9">
+        <v>0.1471397831493333</v>
+      </c>
+      <c r="R9">
+        <v>1.324258048344</v>
+      </c>
+      <c r="S9">
+        <v>0.007555876990464602</v>
+      </c>
+      <c r="T9">
+        <v>0.007555876990464607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5036653333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.510996</v>
+      </c>
+      <c r="I10">
+        <v>0.04154029626969626</v>
+      </c>
+      <c r="J10">
+        <v>0.04154029626969627</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.199921666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.599765</v>
+      </c>
+      <c r="O10">
+        <v>0.7471024024646026</v>
+      </c>
+      <c r="P10">
+        <v>0.7471024024646027</v>
+      </c>
+      <c r="Q10">
+        <v>0.6043589462155554</v>
+      </c>
+      <c r="R10">
+        <v>5.439230515939999</v>
+      </c>
+      <c r="S10">
+        <v>0.03103485514218144</v>
+      </c>
+      <c r="T10">
+        <v>0.03103485514218146</v>
       </c>
     </row>
   </sheetData>
